--- a/2SJ28/Sony_2SJ28_list.xlsx
+++ b/2SJ28/Sony_2SJ28_list.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sony 2SK82 2SJ28 List" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sony 2SJ28 List" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t xml:space="preserve">Sony 2SJ28 VFET List</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">2SJ28_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved gr</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_14</t>
@@ -295,7 +298,7 @@
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,7 +553,7 @@
         <v>7.336</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="17"/>
@@ -558,7 +561,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>7.717</v>
@@ -572,7 +575,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>4.326</v>
@@ -586,7 +589,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>7.225</v>
@@ -600,7 +603,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>7.206</v>
@@ -614,13 +617,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>6.973</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="17"/>
@@ -628,7 +631,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>4.376</v>
@@ -642,7 +645,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>5.757</v>

--- a/2SJ28/Sony_2SJ28_list.xlsx
+++ b/2SJ28/Sony_2SJ28_list.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">2SJ28_13</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved gr</t>
+    <t xml:space="preserve">sold gr</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_14</t>
@@ -298,7 +298,7 @@
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -546,13 +546,13 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="14" t="n">
         <v>7.336</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="1"/>
@@ -616,13 +616,13 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="14" t="n">
         <v>6.973</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="1"/>
